--- a/Evaluation/BUSCO_results.xlsx
+++ b/Evaluation/BUSCO_results.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
   </bookViews>
@@ -61,10 +61,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,9 +439,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -589,10 +598,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/Evaluation/BUSCO_results.xlsx
+++ b/Evaluation/BUSCO_results.xlsx
@@ -105,9 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +448,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -461,19 +464,19 @@
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
